--- a/Menu.xlsx
+++ b/Menu.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2D2DC39-7B83-489B-AE77-266F3D515032}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11796" windowHeight="8016" activeTab="6"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Понедельник" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="123">
   <si>
     <t>Название продукта</t>
   </si>
@@ -386,12 +387,15 @@
   </si>
   <si>
     <t>Маленький  (при заказе блюд и выпечки, которая не может поместиться в пакет)</t>
+  </si>
+  <si>
+    <t>250 г</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -463,7 +467,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -479,9 +483,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -519,7 +523,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -554,6 +558,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -589,9 +610,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -764,20 +802,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M48"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="50.77734375" customWidth="1"/>
-    <col min="2" max="4" width="25.77734375" customWidth="1"/>
+    <col min="1" max="1" width="50.7109375" customWidth="1"/>
+    <col min="2" max="4" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -800,7 +838,7 @@
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>64</v>
       </c>
@@ -823,7 +861,7 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>65</v>
       </c>
@@ -846,7 +884,7 @@
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>66</v>
       </c>
@@ -869,7 +907,7 @@
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>119</v>
       </c>
@@ -892,7 +930,7 @@
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>69</v>
       </c>
@@ -915,7 +953,7 @@
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>71</v>
       </c>
@@ -938,7 +976,7 @@
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>72</v>
       </c>
@@ -961,12 +999,12 @@
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="9">
-        <v>220</v>
+      <c r="B9" s="9" t="s">
+        <v>117</v>
       </c>
       <c r="C9">
         <v>164</v>
@@ -984,12 +1022,12 @@
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B10" s="9">
-        <v>250</v>
+      <c r="B10" s="9" t="s">
+        <v>122</v>
       </c>
       <c r="C10">
         <v>169</v>
@@ -1007,12 +1045,12 @@
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B11" s="9">
-        <v>400</v>
+      <c r="B11" s="9" t="s">
+        <v>103</v>
       </c>
       <c r="C11">
         <v>198</v>
@@ -1030,12 +1068,12 @@
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B12" s="9">
-        <v>110</v>
+      <c r="B12" s="9" t="s">
+        <v>120</v>
       </c>
       <c r="C12">
         <v>119</v>
@@ -1053,12 +1091,12 @@
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B13" s="9">
-        <v>150</v>
+      <c r="B13" s="9" t="s">
+        <v>105</v>
       </c>
       <c r="C13">
         <v>65</v>
@@ -1076,12 +1114,12 @@
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B14" s="9">
-        <v>150</v>
+      <c r="B14" s="9" t="s">
+        <v>105</v>
       </c>
       <c r="C14">
         <v>55</v>
@@ -1099,12 +1137,12 @@
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B15" s="9">
-        <v>150</v>
+      <c r="B15" s="9" t="s">
+        <v>105</v>
       </c>
       <c r="C15">
         <v>80</v>
@@ -1122,7 +1160,7 @@
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>25</v>
       </c>
@@ -1145,7 +1183,7 @@
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>26</v>
       </c>
@@ -1168,7 +1206,7 @@
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>80</v>
       </c>
@@ -1191,7 +1229,7 @@
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>81</v>
       </c>
@@ -1214,7 +1252,7 @@
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>82</v>
       </c>
@@ -1237,7 +1275,7 @@
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>83</v>
       </c>
@@ -1260,7 +1298,7 @@
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>84</v>
       </c>
@@ -1283,7 +1321,7 @@
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>85</v>
       </c>
@@ -1306,7 +1344,7 @@
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>86</v>
       </c>
@@ -1329,7 +1367,7 @@
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>87</v>
       </c>
@@ -1352,7 +1390,7 @@
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>88</v>
       </c>
@@ -1375,7 +1413,7 @@
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>36</v>
       </c>
@@ -1389,7 +1427,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>89</v>
       </c>
@@ -1403,7 +1441,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>93</v>
       </c>
@@ -1417,7 +1455,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>39</v>
       </c>
@@ -1431,7 +1469,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>90</v>
       </c>
@@ -1445,7 +1483,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>91</v>
       </c>
@@ -1459,7 +1497,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>92</v>
       </c>
@@ -1473,7 +1511,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>118</v>
       </c>
@@ -1487,7 +1525,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>46</v>
       </c>
@@ -1501,7 +1539,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>47</v>
       </c>
@@ -1515,7 +1553,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>48</v>
       </c>
@@ -1529,7 +1567,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>49</v>
       </c>
@@ -1543,7 +1581,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>50</v>
       </c>
@@ -1557,7 +1595,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>51</v>
       </c>
@@ -1571,7 +1609,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>53</v>
       </c>
@@ -1585,7 +1623,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>113</v>
       </c>
@@ -1599,7 +1637,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>56</v>
       </c>
@@ -1613,7 +1651,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>115</v>
       </c>
@@ -1627,7 +1665,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>58</v>
       </c>
@@ -1641,7 +1679,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>62</v>
       </c>
@@ -1655,7 +1693,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>63</v>
       </c>
@@ -1669,7 +1707,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>121</v>
       </c>
@@ -1690,20 +1728,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="25.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="50.77734375" customWidth="1"/>
-    <col min="2" max="2" width="25.77734375" customWidth="1"/>
+    <col min="1" max="1" width="50.7109375" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1717,7 +1755,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1731,7 +1769,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1745,7 +1783,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1759,7 +1797,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1773,7 +1811,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1787,7 +1825,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -1801,7 +1839,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -1815,7 +1853,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -1829,7 +1867,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -1843,7 +1881,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -1857,7 +1895,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -1871,7 +1909,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -1885,7 +1923,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -1899,7 +1937,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -1913,7 +1951,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -1927,7 +1965,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -1941,7 +1979,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -1955,7 +1993,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -1969,7 +2007,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -1983,7 +2021,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -1997,7 +2035,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -2011,7 +2049,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -2025,7 +2063,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -2039,7 +2077,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -2053,7 +2091,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -2067,7 +2105,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -2081,7 +2119,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>35</v>
       </c>
@@ -2095,7 +2133,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>36</v>
       </c>
@@ -2109,7 +2147,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>37</v>
       </c>
@@ -2123,7 +2161,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>39</v>
       </c>
@@ -2137,7 +2175,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>40</v>
       </c>
@@ -2151,7 +2189,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>41</v>
       </c>
@@ -2165,7 +2203,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>59</v>
       </c>
@@ -2179,7 +2217,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>42</v>
       </c>
@@ -2193,7 +2231,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>43</v>
       </c>
@@ -2207,7 +2245,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>44</v>
       </c>
@@ -2221,7 +2259,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>60</v>
       </c>
@@ -2235,7 +2273,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>45</v>
       </c>
@@ -2249,7 +2287,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>46</v>
       </c>
@@ -2263,7 +2301,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>47</v>
       </c>
@@ -2277,7 +2315,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>48</v>
       </c>
@@ -2291,7 +2329,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>49</v>
       </c>
@@ -2305,7 +2343,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>50</v>
       </c>
@@ -2319,7 +2357,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>51</v>
       </c>
@@ -2333,7 +2371,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>52</v>
       </c>
@@ -2347,7 +2385,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>53</v>
       </c>
@@ -2361,7 +2399,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>113</v>
       </c>
@@ -2375,7 +2413,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>56</v>
       </c>
@@ -2389,7 +2427,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>57</v>
       </c>
@@ -2403,7 +2441,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>58</v>
       </c>
@@ -2417,7 +2455,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>62</v>
       </c>
@@ -2431,7 +2469,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>63</v>
       </c>
@@ -2445,7 +2483,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>121</v>
       </c>
@@ -2465,20 +2503,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="50.77734375" customWidth="1"/>
-    <col min="2" max="4" width="25.77734375" customWidth="1"/>
+    <col min="1" max="1" width="50.7109375" customWidth="1"/>
+    <col min="2" max="4" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2492,7 +2530,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>94</v>
       </c>
@@ -2506,7 +2544,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>95</v>
       </c>
@@ -2520,7 +2558,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>96</v>
       </c>
@@ -2534,7 +2572,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>97</v>
       </c>
@@ -2548,7 +2586,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>98</v>
       </c>
@@ -2562,7 +2600,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>101</v>
       </c>
@@ -2576,7 +2614,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>99</v>
       </c>
@@ -2590,7 +2628,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>100</v>
       </c>
@@ -2604,7 +2642,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>74</v>
       </c>
@@ -2618,7 +2656,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>76</v>
       </c>
@@ -2632,7 +2670,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>104</v>
       </c>
@@ -2646,7 +2684,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>25</v>
       </c>
@@ -2660,7 +2698,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>26</v>
       </c>
@@ -2674,7 +2712,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>80</v>
       </c>
@@ -2688,7 +2726,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>81</v>
       </c>
@@ -2702,7 +2740,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>82</v>
       </c>
@@ -2716,7 +2754,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>83</v>
       </c>
@@ -2730,7 +2768,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>84</v>
       </c>
@@ -2744,7 +2782,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>85</v>
       </c>
@@ -2758,7 +2796,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>86</v>
       </c>
@@ -2772,7 +2810,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>87</v>
       </c>
@@ -2786,7 +2824,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>88</v>
       </c>
@@ -2800,7 +2838,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>36</v>
       </c>
@@ -2814,7 +2852,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>106</v>
       </c>
@@ -2828,7 +2866,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>107</v>
       </c>
@@ -2842,7 +2880,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>108</v>
       </c>
@@ -2856,7 +2894,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>109</v>
       </c>
@@ -2870,7 +2908,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>90</v>
       </c>
@@ -2884,7 +2922,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>110</v>
       </c>
@@ -2898,7 +2936,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>112</v>
       </c>
@@ -2912,7 +2950,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>50</v>
       </c>
@@ -2926,7 +2964,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>111</v>
       </c>
@@ -2940,7 +2978,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>113</v>
       </c>
@@ -2954,7 +2992,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>56</v>
       </c>
@@ -2968,7 +3006,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>62</v>
       </c>
@@ -2982,7 +3020,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>63</v>
       </c>
@@ -2996,7 +3034,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>121</v>
       </c>
@@ -3016,20 +3054,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="50.77734375" customWidth="1"/>
-    <col min="2" max="4" width="25.77734375" customWidth="1"/>
+    <col min="1" max="1" width="50.7109375" customWidth="1"/>
+    <col min="2" max="4" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3043,7 +3081,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>64</v>
       </c>
@@ -3057,7 +3095,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>65</v>
       </c>
@@ -3071,7 +3109,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>66</v>
       </c>
@@ -3085,7 +3123,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>119</v>
       </c>
@@ -3099,7 +3137,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>69</v>
       </c>
@@ -3113,7 +3151,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>71</v>
       </c>
@@ -3127,7 +3165,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>72</v>
       </c>
@@ -3141,7 +3179,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>17</v>
       </c>
@@ -3155,7 +3193,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>73</v>
       </c>
@@ -3169,7 +3207,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>74</v>
       </c>
@@ -3183,7 +3221,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>76</v>
       </c>
@@ -3197,7 +3235,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>77</v>
       </c>
@@ -3211,7 +3249,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>114</v>
       </c>
@@ -3225,7 +3263,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>78</v>
       </c>
@@ -3239,7 +3277,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3253,7 +3291,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>26</v>
       </c>
@@ -3267,7 +3305,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>80</v>
       </c>
@@ -3281,7 +3319,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>81</v>
       </c>
@@ -3295,7 +3333,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>82</v>
       </c>
@@ -3309,7 +3347,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>83</v>
       </c>
@@ -3323,7 +3361,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>84</v>
       </c>
@@ -3337,7 +3375,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>85</v>
       </c>
@@ -3351,7 +3389,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>86</v>
       </c>
@@ -3365,7 +3403,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>87</v>
       </c>
@@ -3379,7 +3417,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>88</v>
       </c>
@@ -3393,7 +3431,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>36</v>
       </c>
@@ -3407,7 +3445,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>89</v>
       </c>
@@ -3421,7 +3459,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>93</v>
       </c>
@@ -3435,7 +3473,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>39</v>
       </c>
@@ -3449,7 +3487,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>90</v>
       </c>
@@ -3463,7 +3501,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>91</v>
       </c>
@@ -3477,7 +3515,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>92</v>
       </c>
@@ -3491,7 +3529,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>118</v>
       </c>
@@ -3505,7 +3543,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>46</v>
       </c>
@@ -3519,7 +3557,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>47</v>
       </c>
@@ -3533,7 +3571,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>48</v>
       </c>
@@ -3547,7 +3585,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>49</v>
       </c>
@@ -3561,7 +3599,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>50</v>
       </c>
@@ -3575,7 +3613,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>51</v>
       </c>
@@ -3589,7 +3627,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>53</v>
       </c>
@@ -3603,7 +3641,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>113</v>
       </c>
@@ -3617,7 +3655,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>56</v>
       </c>
@@ -3631,7 +3669,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>115</v>
       </c>
@@ -3645,7 +3683,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>58</v>
       </c>
@@ -3659,7 +3697,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>62</v>
       </c>
@@ -3673,7 +3711,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>63</v>
       </c>
@@ -3687,7 +3725,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>121</v>
       </c>
@@ -3707,7 +3745,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D103"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -3715,13 +3753,13 @@
       <selection pane="bottomLeft" activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="50.77734375" customWidth="1"/>
-    <col min="2" max="4" width="25.77734375" customWidth="1"/>
+    <col min="1" max="1" width="50.7109375" customWidth="1"/>
+    <col min="2" max="4" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3735,7 +3773,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -3749,7 +3787,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -3763,7 +3801,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -3777,7 +3815,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -3791,7 +3829,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -3805,7 +3843,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -3819,7 +3857,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -3833,7 +3871,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -3847,7 +3885,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -3861,7 +3899,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -3875,7 +3913,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -3889,7 +3927,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -3903,7 +3941,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -3917,7 +3955,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -3931,7 +3969,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -3945,7 +3983,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -3959,7 +3997,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -3973,7 +4011,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -3987,7 +4025,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -4001,7 +4039,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -4015,7 +4053,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -4029,7 +4067,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -4043,7 +4081,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -4057,7 +4095,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -4071,7 +4109,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -4085,7 +4123,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -4099,7 +4137,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>35</v>
       </c>
@@ -4113,7 +4151,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>36</v>
       </c>
@@ -4127,7 +4165,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>37</v>
       </c>
@@ -4141,7 +4179,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>39</v>
       </c>
@@ -4155,7 +4193,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>40</v>
       </c>
@@ -4169,7 +4207,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>41</v>
       </c>
@@ -4183,7 +4221,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>59</v>
       </c>
@@ -4197,7 +4235,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>42</v>
       </c>
@@ -4211,7 +4249,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>43</v>
       </c>
@@ -4225,7 +4263,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>44</v>
       </c>
@@ -4239,7 +4277,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>60</v>
       </c>
@@ -4253,7 +4291,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>45</v>
       </c>
@@ -4267,7 +4305,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>46</v>
       </c>
@@ -4281,7 +4319,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>47</v>
       </c>
@@ -4295,7 +4333,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>48</v>
       </c>
@@ -4309,7 +4347,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>49</v>
       </c>
@@ -4323,7 +4361,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>50</v>
       </c>
@@ -4337,7 +4375,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>51</v>
       </c>
@@ -4351,7 +4389,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>52</v>
       </c>
@@ -4365,7 +4403,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>53</v>
       </c>
@@ -4379,7 +4417,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>113</v>
       </c>
@@ -4393,7 +4431,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>56</v>
       </c>
@@ -4407,7 +4445,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>57</v>
       </c>
@@ -4421,7 +4459,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>58</v>
       </c>
@@ -4435,7 +4473,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>62</v>
       </c>
@@ -4449,7 +4487,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>63</v>
       </c>
@@ -4463,7 +4501,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>121</v>
       </c>
@@ -4477,154 +4515,154 @@
         <v>61</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
       <c r="B55" s="7"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="7"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="7"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="4"/>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="4"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="4"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="4"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="4"/>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="4"/>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="4"/>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="4"/>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="4"/>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="4"/>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="4"/>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="4"/>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="4"/>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="4"/>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="4"/>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="4"/>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" s="4"/>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="4"/>
     </row>
   </sheetData>
@@ -4634,20 +4672,20 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A48" sqref="A2:D48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="50.77734375" customWidth="1"/>
-    <col min="2" max="4" width="25.77734375" customWidth="1"/>
+    <col min="1" max="1" width="50.7109375" customWidth="1"/>
+    <col min="2" max="4" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4661,7 +4699,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>64</v>
       </c>
@@ -4675,7 +4713,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>65</v>
       </c>
@@ -4689,7 +4727,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>66</v>
       </c>
@@ -4703,7 +4741,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>119</v>
       </c>
@@ -4717,7 +4755,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>69</v>
       </c>
@@ -4731,7 +4769,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>71</v>
       </c>
@@ -4745,7 +4783,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>72</v>
       </c>
@@ -4759,7 +4797,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>17</v>
       </c>
@@ -4773,7 +4811,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>73</v>
       </c>
@@ -4787,7 +4825,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>74</v>
       </c>
@@ -4801,7 +4839,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>76</v>
       </c>
@@ -4815,7 +4853,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>77</v>
       </c>
@@ -4829,7 +4867,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>114</v>
       </c>
@@ -4843,7 +4881,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>78</v>
       </c>
@@ -4857,7 +4895,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>25</v>
       </c>
@@ -4871,7 +4909,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>26</v>
       </c>
@@ -4885,7 +4923,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>80</v>
       </c>
@@ -4899,7 +4937,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>81</v>
       </c>
@@ -4913,7 +4951,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>82</v>
       </c>
@@ -4927,7 +4965,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>83</v>
       </c>
@@ -4941,7 +4979,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>84</v>
       </c>
@@ -4955,7 +4993,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>85</v>
       </c>
@@ -4969,7 +5007,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>86</v>
       </c>
@@ -4983,7 +5021,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>87</v>
       </c>
@@ -4997,7 +5035,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>88</v>
       </c>
@@ -5011,7 +5049,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>36</v>
       </c>
@@ -5025,7 +5063,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>89</v>
       </c>
@@ -5039,7 +5077,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>93</v>
       </c>
@@ -5053,7 +5091,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>39</v>
       </c>
@@ -5067,7 +5105,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>90</v>
       </c>
@@ -5081,7 +5119,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>91</v>
       </c>
@@ -5095,7 +5133,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>92</v>
       </c>
@@ -5109,7 +5147,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>118</v>
       </c>
@@ -5123,7 +5161,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>46</v>
       </c>
@@ -5137,7 +5175,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>47</v>
       </c>
@@ -5151,7 +5189,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>48</v>
       </c>
@@ -5165,7 +5203,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>49</v>
       </c>
@@ -5179,7 +5217,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>50</v>
       </c>
@@ -5193,7 +5231,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>51</v>
       </c>
@@ -5207,7 +5245,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>53</v>
       </c>
@@ -5221,7 +5259,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>113</v>
       </c>
@@ -5235,7 +5273,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>56</v>
       </c>
@@ -5249,7 +5287,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>115</v>
       </c>
@@ -5263,7 +5301,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>58</v>
       </c>
@@ -5277,7 +5315,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>62</v>
       </c>
@@ -5291,7 +5329,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>63</v>
       </c>
@@ -5305,7 +5343,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>121</v>
       </c>
@@ -5325,21 +5363,21 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="50.77734375" customWidth="1"/>
-    <col min="2" max="2" width="25.77734375" style="6" customWidth="1"/>
-    <col min="3" max="4" width="25.77734375" customWidth="1"/>
+    <col min="1" max="1" width="50.7109375" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" style="6" customWidth="1"/>
+    <col min="3" max="4" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5353,7 +5391,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>94</v>
       </c>
@@ -5367,7 +5405,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>95</v>
       </c>
@@ -5381,7 +5419,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>96</v>
       </c>
@@ -5395,7 +5433,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>97</v>
       </c>
@@ -5409,7 +5447,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>98</v>
       </c>
@@ -5423,7 +5461,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>101</v>
       </c>
@@ -5437,7 +5475,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>99</v>
       </c>
@@ -5451,7 +5489,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>100</v>
       </c>
@@ -5465,7 +5503,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>74</v>
       </c>
@@ -5479,7 +5517,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>76</v>
       </c>
@@ -5493,7 +5531,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>104</v>
       </c>
@@ -5507,7 +5545,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>25</v>
       </c>
@@ -5521,7 +5559,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>26</v>
       </c>
@@ -5535,7 +5573,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>80</v>
       </c>
@@ -5549,7 +5587,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>81</v>
       </c>
@@ -5563,7 +5601,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>82</v>
       </c>
@@ -5577,7 +5615,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>83</v>
       </c>
@@ -5591,7 +5629,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>84</v>
       </c>
@@ -5605,7 +5643,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>85</v>
       </c>
@@ -5619,7 +5657,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>86</v>
       </c>
@@ -5633,7 +5671,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>87</v>
       </c>
@@ -5647,7 +5685,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>88</v>
       </c>
@@ -5661,7 +5699,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>36</v>
       </c>
@@ -5675,7 +5713,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>106</v>
       </c>
@@ -5689,7 +5727,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>107</v>
       </c>
@@ -5703,7 +5741,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>108</v>
       </c>
@@ -5717,7 +5755,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>109</v>
       </c>
@@ -5731,7 +5769,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>90</v>
       </c>
@@ -5745,7 +5783,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>110</v>
       </c>
@@ -5759,7 +5797,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>112</v>
       </c>
@@ -5773,7 +5811,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>50</v>
       </c>
@@ -5787,7 +5825,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>111</v>
       </c>
@@ -5801,7 +5839,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>113</v>
       </c>
@@ -5815,7 +5853,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>56</v>
       </c>
@@ -5829,7 +5867,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>62</v>
       </c>
@@ -5843,7 +5881,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>63</v>
       </c>
@@ -5857,7 +5895,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>121</v>
       </c>
